--- a/graph_generation/results/hermes_llama2/level_10/k_3.xlsx
+++ b/graph_generation/results/hermes_llama2/level_10/k_3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>prompt</t>
   </si>
@@ -30,7 +30,7 @@
     <t>evaluator_response</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 18 nodes labelled A to R. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 13 nodes labelled A to M. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path to travel first from node A to node I, and then from node node I to node J? Return 2 sequences of nodes in response.
    A B C D E F G H I J
@@ -85,26 +85,238 @@
 Solution: Path from A to K: A -&gt; B -&gt; E -&gt; G -&gt; K
 Path from K to S: K -&gt; G -&gt; E -&gt; B -&gt; A -&gt; S
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node A to node H, and then from node node H to node R? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N O P Q R
- A 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 4 0 3 3 0 0 0 0 0 0 1 0 0 0 4 1 0 3
- C 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 3 0 0 5 5 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 5 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 2 0 1 0 2 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- K 0 1 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 5 0 2 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 2 0 4 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 4 0 4 0 0 0
- O 0 4 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
- P 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 4
- R 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
+What is the least cost path to travel first from node A to node J, and then from node node J to node M? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L M
+ A 0 1 3 4 0 0 0 0 0 0 0 0 0
+ B 1 0 0 0 0 0 0 0 0 0 0 0 0
+ C 3 0 0 0 0 0 0 0 0 0 0 0 0
+ D 4 0 0 0 3 4 0 0 0 0 0 0 0
+ E 0 0 0 3 0 0 0 0 0 0 0 0 0
+ F 0 0 0 4 0 0 5 0 0 0 0 0 0
+ G 0 0 0 0 0 5 0 4 0 0 0 0 3
+ H 0 0 0 0 0 0 4 0 2 0 0 0 0
+ I 0 0 0 0 0 0 0 2 0 2 0 0 0
+ J 0 0 0 0 0 0 0 0 2 0 5 0 0
+ K 0 0 0 0 0 0 0 0 0 5 0 1 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 1
+ M 0 0 0 0 0 0 3 0 0 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 12 nodes labelled A to L. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: What is the least cost path to travel first from node A to node I, and then from node node I to node J? Return 2 sequences of nodes in response.
+   A B C D E F G H I J
+ A 0 1 0 0 2 0 3 0 0 5
+ B 1 0 3 4 0 0 0 0 0 0
+ C 0 3 0 0 0 0 0 0 0 0
+ D 0 4 0 0 0 0 0 0 0 0
+ E 2 0 0 0 0 2 0 0 0 0
+ F 0 0 0 0 2 0 0 0 0 0
+ G 3 0 0 0 0 0 0 1 0 0
+ H 0 0 0 0 0 0 1 0 3 0
+ I 0 0 0 0 0 0 0 3 0 4
+ J 5 0 0 0 0 0 0 0 4 0
+Solution: Path from A to I: A -&gt; G -&gt; H -&gt; I
+Path from I to J: I -&gt; J
+Example 2: What is the least cost path to travel first from node A to node B, and then from node node B to node K? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K
+ A 0 1 3 0 0 0 0 0 1 0 4
+ B 1 0 0 0 0 0 0 0 0 0 0
+ C 3 0 0 4 0 0 3 2 0 0 0
+ D 0 0 4 0 5 0 0 0 0 0 0
+ E 0 0 0 5 0 3 0 0 0 0 0
+ F 0 0 0 0 3 0 0 0 0 0 0
+ G 0 0 3 0 0 0 0 0 0 0 0
+ H 0 0 2 0 0 0 0 0 0 0 0
+ I 1 0 0 0 0 0 0 0 0 5 0
+ J 0 0 0 0 0 0 0 0 5 0 3
+ K 4 0 0 0 0 0 0 0 0 3 0
+Solution: Path from A to B: A -&gt; B
+Path from B to K: B -&gt; A -&gt; K
+Example 3: What is the least cost path to travel first from node A to node K, and then from node node K to node S? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S
+ A 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
+ B 3 0 5 3 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 4 0 0 0 5 2 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 2 0 0 4 0 0 2 5 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 4 0 2 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 5 0 0 0 0 0 5 0 4 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 5 0 4 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 2 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2
+ S 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
+Solution: Path from A to K: A -&gt; B -&gt; E -&gt; G -&gt; K
+Path from K to S: K -&gt; G -&gt; E -&gt; B -&gt; A -&gt; S
+ Given these examples, answer the following quesiton.
+What is the least cost path to travel first from node A to node J, and then from node node J to node L? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L
+ A 0 4 0 0 2 0 0 0 0 0 0 0
+ B 4 0 2 3 0 0 0 0 0 0 0 0
+ C 0 2 0 0 0 0 0 0 0 0 0 0
+ D 0 3 0 0 0 0 0 0 0 0 0 0
+ E 2 0 0 0 0 3 0 0 0 0 0 0
+ F 0 0 0 0 3 0 5 0 0 4 5 2
+ G 0 0 0 0 0 5 0 2 2 0 0 0
+ H 0 0 0 0 0 0 2 0 0 0 0 0
+ I 0 0 0 0 0 0 2 0 0 0 0 0
+ J 0 0 0 0 0 4 0 0 0 0 0 0
+ K 0 0 0 0 0 5 0 0 0 0 0 2
+ L 0 0 0 0 0 2 0 0 0 0 2 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 12 nodes labelled A to L. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: What is the least cost path to travel first from node A to node I, and then from node node I to node J? Return 2 sequences of nodes in response.
+   A B C D E F G H I J
+ A 0 1 0 0 2 0 3 0 0 5
+ B 1 0 3 4 0 0 0 0 0 0
+ C 0 3 0 0 0 0 0 0 0 0
+ D 0 4 0 0 0 0 0 0 0 0
+ E 2 0 0 0 0 2 0 0 0 0
+ F 0 0 0 0 2 0 0 0 0 0
+ G 3 0 0 0 0 0 0 1 0 0
+ H 0 0 0 0 0 0 1 0 3 0
+ I 0 0 0 0 0 0 0 3 0 4
+ J 5 0 0 0 0 0 0 0 4 0
+Solution: Path from A to I: A -&gt; G -&gt; H -&gt; I
+Path from I to J: I -&gt; J
+Example 2: What is the least cost path to travel first from node A to node B, and then from node node B to node K? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K
+ A 0 1 3 0 0 0 0 0 1 0 4
+ B 1 0 0 0 0 0 0 0 0 0 0
+ C 3 0 0 4 0 0 3 2 0 0 0
+ D 0 0 4 0 5 0 0 0 0 0 0
+ E 0 0 0 5 0 3 0 0 0 0 0
+ F 0 0 0 0 3 0 0 0 0 0 0
+ G 0 0 3 0 0 0 0 0 0 0 0
+ H 0 0 2 0 0 0 0 0 0 0 0
+ I 1 0 0 0 0 0 0 0 0 5 0
+ J 0 0 0 0 0 0 0 0 5 0 3
+ K 4 0 0 0 0 0 0 0 0 3 0
+Solution: Path from A to B: A -&gt; B
+Path from B to K: B -&gt; A -&gt; K
+Example 3: What is the least cost path to travel first from node A to node K, and then from node node K to node S? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S
+ A 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
+ B 3 0 5 3 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 4 0 0 0 5 2 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 2 0 0 4 0 0 2 5 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 4 0 2 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 5 0 0 0 0 0 5 0 4 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 5 0 4 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 2 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2
+ S 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
+Solution: Path from A to K: A -&gt; B -&gt; E -&gt; G -&gt; K
+Path from K to S: K -&gt; G -&gt; E -&gt; B -&gt; A -&gt; S
+ Given these examples, answer the following quesiton.
+What is the least cost path to travel first from node A to node I, and then from node node I to node L? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L
+ A 0 2 0 0 0 0 0 0 0 0 0 0
+ B 2 0 5 0 0 0 0 0 0 0 0 2
+ C 0 5 0 1 0 1 0 0 0 0 2 0
+ D 0 0 1 0 3 0 0 0 0 0 0 0
+ E 0 0 0 3 0 0 0 0 0 0 0 0
+ F 0 0 1 0 0 0 2 4 0 0 0 0
+ G 0 0 0 0 0 2 0 0 0 0 0 0
+ H 0 0 0 0 0 4 0 0 3 0 0 0
+ I 0 0 0 0 0 0 0 3 0 5 0 0
+ J 0 0 0 0 0 0 0 0 5 0 0 0
+ K 0 0 2 0 0 0 0 0 0 0 0 2
+ L 0 2 0 0 0 0 0 0 0 0 2 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 13 nodes labelled A to M. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: What is the least cost path to travel first from node A to node I, and then from node node I to node J? Return 2 sequences of nodes in response.
+   A B C D E F G H I J
+ A 0 1 0 0 2 0 3 0 0 5
+ B 1 0 3 4 0 0 0 0 0 0
+ C 0 3 0 0 0 0 0 0 0 0
+ D 0 4 0 0 0 0 0 0 0 0
+ E 2 0 0 0 0 2 0 0 0 0
+ F 0 0 0 0 2 0 0 0 0 0
+ G 3 0 0 0 0 0 0 1 0 0
+ H 0 0 0 0 0 0 1 0 3 0
+ I 0 0 0 0 0 0 0 3 0 4
+ J 5 0 0 0 0 0 0 0 4 0
+Solution: Path from A to I: A -&gt; G -&gt; H -&gt; I
+Path from I to J: I -&gt; J
+Example 2: What is the least cost path to travel first from node A to node B, and then from node node B to node K? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K
+ A 0 1 3 0 0 0 0 0 1 0 4
+ B 1 0 0 0 0 0 0 0 0 0 0
+ C 3 0 0 4 0 0 3 2 0 0 0
+ D 0 0 4 0 5 0 0 0 0 0 0
+ E 0 0 0 5 0 3 0 0 0 0 0
+ F 0 0 0 0 3 0 0 0 0 0 0
+ G 0 0 3 0 0 0 0 0 0 0 0
+ H 0 0 2 0 0 0 0 0 0 0 0
+ I 1 0 0 0 0 0 0 0 0 5 0
+ J 0 0 0 0 0 0 0 0 5 0 3
+ K 4 0 0 0 0 0 0 0 0 3 0
+Solution: Path from A to B: A -&gt; B
+Path from B to K: B -&gt; A -&gt; K
+Example 3: What is the least cost path to travel first from node A to node K, and then from node node K to node S? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S
+ A 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
+ B 3 0 5 3 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 4 0 0 0 5 2 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 2 0 0 4 0 0 2 5 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 4 0 2 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 5 0 0 0 0 0 5 0 4 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 5 0 4 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 2 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2
+ S 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
+Solution: Path from A to K: A -&gt; B -&gt; E -&gt; G -&gt; K
+Path from K to S: K -&gt; G -&gt; E -&gt; B -&gt; A -&gt; S
+ Given these examples, answer the following quesiton.
+What is the least cost path to travel first from node A to node C, and then from node node C to node M? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L M
+ A 0 1 0 0 0 0 0 0 0 0 1 0 0
+ B 1 0 1 0 0 0 0 0 0 0 0 0 5
+ C 0 1 0 3 3 1 0 0 0 0 0 0 0
+ D 0 0 3 0 0 0 0 0 0 0 0 0 0
+ E 0 0 3 0 0 0 0 0 0 0 0 0 0
+ F 0 0 1 0 0 0 1 0 0 1 0 0 0
+ G 0 0 0 0 0 1 0 2 2 0 0 0 0
+ H 0 0 0 0 0 0 2 0 0 0 0 0 0
+ I 0 0 0 0 0 0 2 0 0 0 0 0 0
+ J 0 0 0 0 0 1 0 0 0 0 0 0 0
+ K 1 0 0 0 0 0 0 0 0 0 0 3 0
+ L 0 0 0 0 0 0 0 0 0 0 3 0 3
+ M 0 5 0 0 0 0 0 0 0 0 0 3 0
     </t>
   </si>
   <si>
@@ -165,24 +377,24 @@
  Given these examples, answer the following quesiton.
 What is the least cost path to travel first from node A to node D, and then from node node D to node N? Return 2 sequences of nodes in response.
    A B C D E F G H I J K L M N
- A 0 5 3 0 0 0 0 0 0 0 0 0 3 0
- B 5 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 3 0 0 4 0 0 0 0 0 0 2 0 0 3
- D 0 0 4 0 1 0 0 0 0 0 0 0 0 0
- E 0 0 0 1 0 5 2 0 2 0 0 0 0 0
- F 0 0 0 0 5 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 2 0 0 3 0 0 0 0 0 0
- H 0 0 0 0 0 0 3 0 0 0 0 0 0 0
- I 0 0 0 0 2 0 0 0 0 5 0 0 0 4
- J 0 0 0 0 0 0 0 0 5 0 0 0 0 0
- K 0 0 2 0 0 0 0 0 0 0 0 5 0 0
- L 0 0 0 0 0 0 0 0 0 0 5 0 2 0
- M 3 0 0 0 0 0 0 0 0 0 0 2 0 0
- N 0 0 3 0 0 0 0 0 4 0 0 0 0 0
+ A 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ B 4 0 5 0 5 0 0 0 0 0 0 0 0 3
+ C 0 5 0 1 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ E 0 5 0 0 0 2 1 0 5 0 0 0 0 0
+ F 0 0 0 0 2 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 1 0 0 5 0 0 0 0 0 0
+ H 0 0 0 0 0 0 5 0 0 0 0 0 0 0
+ I 0 0 0 0 5 0 0 0 0 5 0 0 0 0
+ J 0 0 0 0 0 0 0 0 5 0 2 0 0 0
+ K 0 0 0 0 0 0 0 0 0 2 0 4 0 0
+ L 0 0 0 0 0 0 0 0 0 0 4 0 4 0
+ M 0 0 0 0 0 0 0 0 0 0 0 4 0 2
+ N 0 3 0 0 0 0 0 0 0 0 0 0 2 0
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 12 nodes labelled A to L. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path to travel first from node A to node I, and then from node node I to node J? Return 2 sequences of nodes in response.
    A B C D E F G H I J
@@ -237,24 +449,20 @@
 Solution: Path from A to K: A -&gt; B -&gt; E -&gt; G -&gt; K
 Path from K to S: K -&gt; G -&gt; E -&gt; B -&gt; A -&gt; S
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node A to node F, and then from node node F to node P? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 3 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 3 5 4 0 0 0 0 0 0 0 0 0
- E 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 4 0 0 0 3 4 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 4 0 0 2 5 0 0 0 0 4
- J 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 5 0 0 5 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 5 0 5 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 5 0 1 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2
- P 0 0 0 0 0 0 0 0 4 0 0 0 0 0 2 0
+What is the least cost path to travel first from node A to node E, and then from node node E to node L? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L
+ A 0 4 0 0 0 0 0 0 0 0 0 0
+ B 4 0 2 0 0 0 0 0 0 0 1 0
+ C 0 2 0 1 0 0 0 0 0 0 0 0
+ D 0 0 1 0 1 0 0 0 0 2 0 3
+ E 0 0 0 1 0 4 0 0 0 0 0 0
+ F 0 0 0 0 4 0 3 4 0 0 0 0
+ G 0 0 0 0 0 3 0 0 0 0 0 0
+ H 0 0 0 0 0 4 0 0 1 0 0 0
+ I 0 0 0 0 0 0 0 1 0 0 0 0
+ J 0 0 0 2 0 0 0 0 0 0 0 0
+ K 0 1 0 0 0 0 0 0 0 0 0 2
+ L 0 0 0 3 0 0 0 0 0 0 2 0
     </t>
   </si>
   <si>
@@ -313,94 +521,23 @@
 Solution: Path from A to K: A -&gt; B -&gt; E -&gt; G -&gt; K
 Path from K to S: K -&gt; G -&gt; E -&gt; B -&gt; A -&gt; S
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node A to node J, and then from node node J to node O? Return 2 sequences of nodes in response.
+What is the least cost path to travel first from node A to node E, and then from node node E to node O? Return 2 sequences of nodes in response.
    A B C D E F G H I J K L M N O
- A 0 3 5 0 0 0 0 0 0 0 0 1 0 0 0
- B 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 5 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 4 0 2 3 0 0 0 0 0 0 0 0 0
- E 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 3 0 0 5 0 4 0 4 0 0 0 1
- G 0 0 0 0 0 5 0 3 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 4 0 0 0 4 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 4 0 5 0 0 0 0
- K 0 0 0 0 0 4 0 0 0 5 0 0 0 0 0
- L 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2
- O 0 0 0 0 0 1 0 0 0 0 0 0 0 2 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 11 nodes labelled A to K. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-Consider some examples
-Example 1: What is the least cost path to travel first from node A to node I, and then from node node I to node J? Return 2 sequences of nodes in response.
-   A B C D E F G H I J
- A 0 1 0 0 2 0 3 0 0 5
- B 1 0 3 4 0 0 0 0 0 0
- C 0 3 0 0 0 0 0 0 0 0
- D 0 4 0 0 0 0 0 0 0 0
- E 2 0 0 0 0 2 0 0 0 0
- F 0 0 0 0 2 0 0 0 0 0
- G 3 0 0 0 0 0 0 1 0 0
- H 0 0 0 0 0 0 1 0 3 0
- I 0 0 0 0 0 0 0 3 0 4
- J 5 0 0 0 0 0 0 0 4 0
-Solution: Path from A to I: A -&gt; G -&gt; H -&gt; I
-Path from I to J: I -&gt; J
-Example 2: What is the least cost path to travel first from node A to node B, and then from node node B to node K? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K
- A 0 1 3 0 0 0 0 0 1 0 4
- B 1 0 0 0 0 0 0 0 0 0 0
- C 3 0 0 4 0 0 3 2 0 0 0
- D 0 0 4 0 5 0 0 0 0 0 0
- E 0 0 0 5 0 3 0 0 0 0 0
- F 0 0 0 0 3 0 0 0 0 0 0
- G 0 0 3 0 0 0 0 0 0 0 0
- H 0 0 2 0 0 0 0 0 0 0 0
- I 1 0 0 0 0 0 0 0 0 5 0
- J 0 0 0 0 0 0 0 0 5 0 3
- K 4 0 0 0 0 0 0 0 0 3 0
-Solution: Path from A to B: A -&gt; B
-Path from B to K: B -&gt; A -&gt; K
-Example 3: What is the least cost path to travel first from node A to node K, and then from node node K to node S? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S
- A 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
- B 3 0 5 3 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 4 0 0 0 5 2 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 2 0 0 4 0 0 2 5 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 4 0 2 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 5 0 0 0 0 0 5 0 4 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 5 0 4 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 2 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2
- S 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
-Solution: Path from A to K: A -&gt; B -&gt; E -&gt; G -&gt; K
-Path from K to S: K -&gt; G -&gt; E -&gt; B -&gt; A -&gt; S
- Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node A to node F, and then from node node F to node K? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K
- A 0 3 0 0 1 0 0 0 0 0 3
- B 3 0 1 0 0 0 0 0 0 0 0
- C 0 1 0 3 0 0 0 0 0 0 0
- D 0 0 3 0 0 0 0 0 0 0 0
- E 1 0 0 0 0 4 0 0 0 4 0
- F 0 0 0 0 4 0 1 4 0 0 0
- G 0 0 0 0 0 1 0 0 0 0 0
- H 0 0 0 0 0 4 0 0 2 0 0
- I 0 0 0 0 0 0 0 2 0 0 0
- J 0 0 0 0 4 0 0 0 0 0 3
- K 3 0 0 0 0 0 0 0 0 3 0
+ A 0 2 4 3 4 0 0 0 0 0 4 0 0 0 5
+ B 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 4 0 0 0 0 1 0 2 4 0 0 0 0 0 4
+ F 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 4 0 0 0 0 3 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 3 0 0 0 0 5 0
+ K 4 0 0 0 0 0 0 0 0 0 0 2 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 2 0 3 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 3 0 1 0
+ N 0 0 0 0 0 0 0 0 0 5 0 0 1 0 0
+ O 5 0 0 0 4 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -459,25 +596,25 @@
 Solution: Path from A to K: A -&gt; B -&gt; E -&gt; G -&gt; K
 Path from K to S: K -&gt; G -&gt; E -&gt; B -&gt; A -&gt; S
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node A to node I, and then from node node I to node M? Return 2 sequences of nodes in response.
+What is the least cost path to travel first from node A to node B, and then from node node B to node M? Return 2 sequences of nodes in response.
    A B C D E F G H I J K L M
- A 0 2 0 0 0 0 0 0 0 0 4 0 0
- B 2 0 5 0 0 0 0 0 0 5 0 0 1
- C 0 5 0 1 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 4 0 0 0 0 0 0 0 0
- E 0 0 0 4 0 4 0 1 0 0 0 0 0
- F 0 0 0 0 4 0 3 0 0 0 0 0 0
- G 0 0 0 0 0 3 0 0 0 0 0 0 0
- H 0 0 0 0 1 0 0 0 5 0 0 0 0
- I 0 0 0 0 0 0 0 5 0 0 0 0 0
- J 0 5 0 0 0 0 0 0 0 0 0 0 0
- K 4 0 0 0 0 0 0 0 0 0 0 2 0
- L 0 0 0 0 0 0 0 0 0 0 2 0 4
- M 0 1 0 0 0 0 0 0 0 0 0 4 0
+ A 0 4 0 0 5 0 0 0 0 0 4 0 0
+ B 4 0 2 0 0 0 0 0 0 0 0 0 0
+ C 0 2 0 3 0 0 0 0 0 0 0 0 0
+ D 0 0 3 0 0 0 0 0 0 0 0 0 0
+ E 5 0 0 0 0 4 1 5 3 0 0 0 1
+ F 0 0 0 0 4 0 0 0 0 0 0 0 0
+ G 0 0 0 0 1 0 0 0 0 0 0 0 0
+ H 0 0 0 0 5 0 0 0 0 0 0 0 0
+ I 0 0 0 0 3 0 0 0 0 5 0 0 0
+ J 0 0 0 0 0 0 0 0 5 0 0 0 0
+ K 4 0 0 0 0 0 0 0 0 0 0 5 0
+ L 0 0 0 0 0 0 0 0 0 0 5 0 4
+ M 0 0 0 0 1 0 0 0 0 0 0 4 0
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 11 nodes labelled A to K. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 12 nodes labelled A to L. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path to travel first from node A to node I, and then from node node I to node J? Return 2 sequences of nodes in response.
    A B C D E F G H I J
@@ -532,23 +669,24 @@
 Solution: Path from A to K: A -&gt; B -&gt; E -&gt; G -&gt; K
 Path from K to S: K -&gt; G -&gt; E -&gt; B -&gt; A -&gt; S
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node A to node J, and then from node node J to node K? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K
- A 0 3 0 0 0 0 0 0 0 0 0
- B 3 0 3 0 0 0 0 0 0 0 0
- C 0 3 0 4 0 0 0 0 0 0 0
- D 0 0 4 0 5 0 0 0 0 0 0
- E 0 0 0 5 0 1 0 0 0 0 0
- F 0 0 0 0 1 0 5 0 4 0 5
- G 0 0 0 0 0 5 0 5 0 0 0
- H 0 0 0 0 0 0 5 0 0 0 0
- I 0 0 0 0 0 4 0 0 0 4 0
- J 0 0 0 0 0 0 0 0 4 0 5
- K 0 0 0 0 0 5 0 0 0 5 0
+What is the least cost path to travel first from node A to node D, and then from node node D to node L? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L
+ A 0 1 2 0 0 0 0 0 0 0 3 0
+ B 1 0 0 0 0 0 0 0 0 0 0 0
+ C 2 0 0 4 0 0 1 0 0 0 0 0
+ D 0 0 4 0 5 0 0 0 0 0 0 0
+ E 0 0 0 5 0 4 0 0 0 0 0 0
+ F 0 0 0 0 4 0 0 0 0 0 0 0
+ G 0 0 1 0 0 0 0 2 0 4 1 0
+ H 0 0 0 0 0 0 2 0 3 0 0 0
+ I 0 0 0 0 0 0 0 3 0 0 0 0
+ J 0 0 0 0 0 0 4 0 0 0 0 4
+ K 3 0 0 0 0 0 1 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 4 0 0
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 12 nodes labelled A to L. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path to travel first from node A to node I, and then from node node I to node J? Return 2 sequences of nodes in response.
    A B C D E F G H I J
@@ -603,343 +741,133 @@
 Solution: Path from A to K: A -&gt; B -&gt; E -&gt; G -&gt; K
 Path from K to S: K -&gt; G -&gt; E -&gt; B -&gt; A -&gt; S
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node A to node L, and then from node node L to node O? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N O
- A 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 4 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 1 0 0 0 5 0 0 0 0 0 0 0 0 0 2
- E 0 0 0 5 0 1 4 0 0 0 2 0 0 0 0
- F 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 4 0 0 4 0 3 0 0 0 0 0
- H 0 0 0 0 0 0 4 0 3 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
- K 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 5
- O 0 0 0 2 0 0 0 0 0 0 0 0 0 5 0
+What is the least cost path to travel first from node A to node J, and then from node node J to node L? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L
+ A 0 1 0 0 0 0 0 0 0 0 0 0
+ B 1 0 5 0 0 0 0 0 0 4 3 0
+ C 0 5 0 4 2 0 0 0 0 0 0 0
+ D 0 0 4 0 0 0 0 0 0 0 0 0
+ E 0 0 2 0 0 2 0 0 0 0 0 0
+ F 0 0 0 0 2 0 1 0 5 0 0 0
+ G 0 0 0 0 0 1 0 4 0 0 0 0
+ H 0 0 0 0 0 0 4 0 0 0 0 0
+ I 0 0 0 0 0 5 0 0 0 0 0 0
+ J 0 4 0 0 0 0 0 0 0 0 0 2
+ K 0 3 0 0 0 0 0 0 0 0 0 3
+ L 0 0 0 0 0 0 0 0 0 2 3 0
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-Consider some examples
-Example 1: What is the least cost path to travel first from node A to node I, and then from node node I to node J? Return 2 sequences of nodes in response.
-   A B C D E F G H I J
- A 0 1 0 0 2 0 3 0 0 5
- B 1 0 3 4 0 0 0 0 0 0
- C 0 3 0 0 0 0 0 0 0 0
- D 0 4 0 0 0 0 0 0 0 0
- E 2 0 0 0 0 2 0 0 0 0
- F 0 0 0 0 2 0 0 0 0 0
- G 3 0 0 0 0 0 0 1 0 0
- H 0 0 0 0 0 0 1 0 3 0
- I 0 0 0 0 0 0 0 3 0 4
- J 5 0 0 0 0 0 0 0 4 0
-Solution: Path from A to I: A -&gt; G -&gt; H -&gt; I
-Path from I to J: I -&gt; J
-Example 2: What is the least cost path to travel first from node A to node B, and then from node node B to node K? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K
- A 0 1 3 0 0 0 0 0 1 0 4
- B 1 0 0 0 0 0 0 0 0 0 0
- C 3 0 0 4 0 0 3 2 0 0 0
- D 0 0 4 0 5 0 0 0 0 0 0
- E 0 0 0 5 0 3 0 0 0 0 0
- F 0 0 0 0 3 0 0 0 0 0 0
- G 0 0 3 0 0 0 0 0 0 0 0
- H 0 0 2 0 0 0 0 0 0 0 0
- I 1 0 0 0 0 0 0 0 0 5 0
- J 0 0 0 0 0 0 0 0 5 0 3
- K 4 0 0 0 0 0 0 0 0 3 0
-Solution: Path from A to B: A -&gt; B
-Path from B to K: B -&gt; A -&gt; K
-Example 3: What is the least cost path to travel first from node A to node K, and then from node node K to node S? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S
- A 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
- B 3 0 5 3 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 4 0 0 0 5 2 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 2 0 0 4 0 0 2 5 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 4 0 2 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 5 0 0 0 0 0 5 0 4 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 5 0 4 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 2 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2
- S 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
-Solution: Path from A to K: A -&gt; B -&gt; E -&gt; G -&gt; K
-Path from K to S: K -&gt; G -&gt; E -&gt; B -&gt; A -&gt; S
- Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node A to node F, and then from node node F to node O? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N O
- A 0 5 0 0 0 0 0 0 0 0 0 0 3 0 5
- B 5 0 4 0 0 0 0 0 0 2 1 0 0 0 0
- C 0 4 0 4 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 4 0 4 0 0 4 0 0 0 0 0 0 0
- E 0 0 0 4 0 5 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 5 0 1 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- H 0 0 0 4 0 0 0 0 1 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- J 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0
- K 0 1 0 0 0 0 0 0 0 0 0 3 0 0 0
- L 0 0 0 0 0 0 0 0 0 1 3 0 0 0 0
- M 3 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4
- O 5 0 0 0 0 0 0 0 0 0 0 0 0 4 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 11 nodes labelled A to K. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-Consider some examples
-Example 1: What is the least cost path to travel first from node A to node I, and then from node node I to node J? Return 2 sequences of nodes in response.
-   A B C D E F G H I J
- A 0 1 0 0 2 0 3 0 0 5
- B 1 0 3 4 0 0 0 0 0 0
- C 0 3 0 0 0 0 0 0 0 0
- D 0 4 0 0 0 0 0 0 0 0
- E 2 0 0 0 0 2 0 0 0 0
- F 0 0 0 0 2 0 0 0 0 0
- G 3 0 0 0 0 0 0 1 0 0
- H 0 0 0 0 0 0 1 0 3 0
- I 0 0 0 0 0 0 0 3 0 4
- J 5 0 0 0 0 0 0 0 4 0
-Solution: Path from A to I: A -&gt; G -&gt; H -&gt; I
-Path from I to J: I -&gt; J
-Example 2: What is the least cost path to travel first from node A to node B, and then from node node B to node K? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K
- A 0 1 3 0 0 0 0 0 1 0 4
- B 1 0 0 0 0 0 0 0 0 0 0
- C 3 0 0 4 0 0 3 2 0 0 0
- D 0 0 4 0 5 0 0 0 0 0 0
- E 0 0 0 5 0 3 0 0 0 0 0
- F 0 0 0 0 3 0 0 0 0 0 0
- G 0 0 3 0 0 0 0 0 0 0 0
- H 0 0 2 0 0 0 0 0 0 0 0
- I 1 0 0 0 0 0 0 0 0 5 0
- J 0 0 0 0 0 0 0 0 5 0 3
- K 4 0 0 0 0 0 0 0 0 3 0
-Solution: Path from A to B: A -&gt; B
-Path from B to K: B -&gt; A -&gt; K
-Example 3: What is the least cost path to travel first from node A to node K, and then from node node K to node S? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S
- A 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
- B 3 0 5 3 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 4 0 0 0 5 2 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 2 0 0 4 0 0 2 5 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 4 0 2 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 5 0 0 0 0 0 5 0 4 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 5 0 4 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 2 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2
- S 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
-Solution: Path from A to K: A -&gt; B -&gt; E -&gt; G -&gt; K
-Path from K to S: K -&gt; G -&gt; E -&gt; B -&gt; A -&gt; S
- Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node A to node B, and then from node node B to node K? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K
- A 0 2 0 0 0 0 0 0 0 0 3
- B 2 0 2 0 0 0 0 0 0 0 0
- C 0 2 0 1 0 0 0 0 0 0 1
- D 0 0 1 0 2 0 0 0 0 0 0
- E 0 0 0 2 0 1 3 5 0 0 0
- F 0 0 0 0 1 0 0 0 0 0 0
- G 0 0 0 0 3 0 0 0 0 0 0
- H 0 0 0 0 5 0 0 0 2 2 0
- I 0 0 0 0 0 0 0 2 0 0 0
- J 0 0 0 0 0 0 0 2 0 0 0
- K 3 0 1 0 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t>Path from A to H: A -&gt; B -&gt; D -&gt; F -&gt; G -&gt; H
-Path from H to R: H -&gt; G -&gt; F -&gt; D -&gt; B -&gt; R</t>
+    <t>Path from A to J: A -&gt; D -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J
+Path from J to M: J -&gt; K -&gt; L -&gt; M</t>
+  </si>
+  <si>
+    <t>Path from A to J: A -&gt; E -&gt; F -&gt; J
+Path from J to L: J -&gt; F -&gt; L</t>
+  </si>
+  <si>
+    <t>Path from A to I: A -&gt; B -&gt; C -&gt; F -&gt; H -&gt; I
+Path from I to L: I -&gt; H -&gt; F -&gt; C -&gt; K -&gt; L</t>
+  </si>
+  <si>
+    <t>Path from A to C: A -&gt; B -&gt; C
+Path from C to M: C -&gt; B -&gt; M</t>
+  </si>
+  <si>
+    <t>Path from A to D: A -&gt; B -&gt; C -&gt; D
+Path from D to N: D -&gt; C -&gt; B -&gt; N</t>
+  </si>
+  <si>
+    <t>Path from A to E: A -&gt; B -&gt; C -&gt; D -&gt; E
+Path from E to L: E -&gt; D -&gt; L</t>
+  </si>
+  <si>
+    <t>Path from A to E: A -&gt; E
+Path from E to O: E -&gt; O</t>
+  </si>
+  <si>
+    <t>Path from A to B: A -&gt; B
+Path from B to M: B -&gt; A -&gt; E -&gt; M</t>
   </si>
   <si>
     <t>Path from A to D: A -&gt; C -&gt; D
-Path from D to N: D -&gt; C -&gt; N</t>
-  </si>
-  <si>
-    <t>Path from A to F: A -&gt; B -&gt; C -&gt; D -&gt; F
-Path from F to P: F -&gt; D -&gt; G -&gt; I -&gt; P</t>
-  </si>
-  <si>
-    <t>Path from A to J: A -&gt; L -&gt; M -&gt; N -&gt; O -&gt; F -&gt; I -&gt; J
-Path from J to O: J -&gt; I -&gt; F -&gt; O</t>
-  </si>
-  <si>
-    <t>Path from A to F: A -&gt; E -&gt; F
-Path from F to K: F -&gt; E -&gt; A -&gt; K</t>
-  </si>
-  <si>
-    <t>Path from A to I: A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; H -&gt; I
-Path from I to M: I -&gt; H -&gt; E -&gt; D -&gt; C -&gt; B -&gt; M</t>
-  </si>
-  <si>
-    <t>Path from A to J: A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; I -&gt; J
-Path from J to K: J -&gt; K</t>
-  </si>
-  <si>
-    <t>Path from A to L: A -&gt; D -&gt; E -&gt; K -&gt; L
-Path from L to O: L -&gt; M -&gt; N -&gt; O</t>
-  </si>
-  <si>
-    <t>Path from A to F: A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F
-Path from F to O: F -&gt; E -&gt; D -&gt; C -&gt; B -&gt; A -&gt; O</t>
-  </si>
-  <si>
-    <t>Path from A to B: A -&gt; B
-Path from B to K: B -&gt; C -&gt; K</t>
-  </si>
-  <si>
-    <t>To find the least cost path from node A to node H, and then from node H to node R, we can use Dijkstra's algorithm. Here's the solution:
-1. Path from A to H: A -&gt; G -&gt; H
-   Cost: 3 + 1 = 4
-2. Path from H to R: H -&gt; A -&gt; I -&gt; J -&gt; R
-   Cost: 4 + 3 + 4 + 2 = 13
-So, the least cost path from A to H and then from H to R is 4 + 13 = 17.
-The two sequences of nodes are:
-1. A -&gt; G -&gt; H
-2. H -&gt; A -&gt; I -&gt; J -&gt; R</t>
+Path from D to L: D -&gt; C -&gt; G -&gt; J -&gt; L</t>
+  </si>
+  <si>
+    <t>Path from A to J: A -&gt; B -&gt; J
+Path from J to L: J -&gt; L</t>
+  </si>
+  <si>
+    <t>The least cost path to travel first from node A to node J, and then from node node J to node M is:
+Path from A to J: A -&gt; I -&gt; J
+Path from J to M: J -&gt; K -&gt; G -&gt; E -&gt; B -&gt; A -&gt; M
+The sequences of nodes are: [A, I, J, K, G, E, B, A, M] and [J, K, G, E, B, A, M].</t>
+  </si>
+  <si>
+    <t>The least cost path to travel first from node A to node J, and then from node node J to node L is:
+Path from A to J: A -&gt; F -&gt; J
+Path from J to L: J -&gt; K -&gt; G -&gt; E -&gt; B -&gt; A -&gt; L
+The sequences of nodes are: [A, F, J, K, G, E, B, A, L] and [A, F, J, K, G, E, B, A, L].</t>
+  </si>
+  <si>
+    <t>The least cost path to travel first from node A to node I, and then from node node I to node L is:
+Path from A to I: A -&gt; G -&gt; H -&gt; I
+Path from I to L: I -&gt; G -&gt; E -&gt; B -&gt; A -&gt; L
+The sequences of nodes are:
+1. A -&gt; G -&gt; H -&gt; I
+2. I -&gt; G -&gt; E -&gt; B -&gt; A -&gt; L</t>
+  </si>
+  <si>
+    <t>The least cost path to travel first from node A to node C, and then from node node C to node M is:
+Path from A to C: A -&gt; F -&gt; C
+Path from C to M: C -&gt; L -&gt; M
+The sequences of nodes are:
+1. A -&gt; F -&gt; C
+2. C -&gt; L -&gt; M</t>
   </si>
   <si>
     <t>The least cost path to travel first from node A to node D, and then from node node D to node N is:
 Path from A to D: A -&gt; B -&gt; E -&gt; D
-Path from D to N: D -&gt; B -&gt; A -&gt; N
+Path from D to N: D -&gt; E -&gt; B -&gt; A -&gt; N
 The sequences of nodes are:
 1. A -&gt; B -&gt; E -&gt; D
-2. D -&gt; B -&gt; A -&gt; N</t>
-  </si>
-  <si>
-    <t>To find the least cost path from node A to node F and then from node F to node P, we can use Dijkstra's algorithm. Here's the solution:
-Path from A to F: A -&gt; B -&gt; E -&gt; G -&gt; F
-Path from F to P: F -&gt; G -&gt; E -&gt; B -&gt; A -&gt; P
-The cost of this path is 10.</t>
-  </si>
-  <si>
-    <t>To find the least cost path from node A to node J, and then from node node J to node O, we can use Dijkstra's algorithm. Here are the steps:
-1. Create a set of unvisited nodes and initialize the distance to the starting node (A) to 0 and the distance to all other nodes to infinity.
-2. Select the node with the smallest distance (A) and mark it as visited.
-3. Update the distances to its neighbors (B, C, and D) by adding the edge weight to the current distance. If the new distance is smaller than the previous distance, update the distance.
-4. Repeat steps 2 and 3 until all nodes are visited or the target node (J) is visited.
-Following these steps, we get the following distances:
-A: 0
-B: 3
-C: 5
-D: 4
-E: 2
-F: 3
-G: 3
-H: 2
-I: 4
-J: 5
-K: 4
-L: 5
-M: 4
-N: 4
-O: 5
-Now, we can find the path from A to J and J to O:
-Path from A to J: A -&gt; G -&gt; H -&gt; I -&gt; J
-Path from J to O: J -&gt; I -&gt; G -&gt; E -&gt; B -&gt; A -&gt; O
-So, the least cost path to travel first from node A to node J, and then from node node J to node O is:
-A -&gt; G -&gt; H -&gt; I -&gt; J -&gt; I -&gt; G -&gt; E -&gt; B -&gt; A -&gt; O
-The cost of this path is 2 + 2 + 1 + 5 + 5 + 4 + 3 + 2 + 1 + 1 + 1 = 29.</t>
-  </si>
-  <si>
-    <t>Path from A to F: A -&gt; D -&gt; E -&gt; F
-Path from F to K: F -&gt; G -&gt; E -&gt; B -&gt; A -&gt; K</t>
-  </si>
-  <si>
-    <t>The least cost path to travel from node A to node I is A -&gt; G -&gt; H -&gt; I. The cost of this path is 3 + 1 + 5 = 9.
-The least cost path to travel from node I to node M is I -&gt; G -&gt; E -&gt; B -&gt; A -&gt; M. The cost of this path is 3 + 4 + 2 + 2 = 11.
-Therefore, the total cost of the least cost path from node A to node M is 9 + 11 = 20.
+2. D -&gt; E -&gt; B -&gt; A -&gt; N</t>
+  </si>
+  <si>
+    <t>Solution: Path from A to E: A -&gt; D -&gt; E
+Path from E to L: E -&gt; C -&gt; L</t>
+  </si>
+  <si>
+    <t>Solution: Path from A to E: A -&gt; B -&gt; E
+Path from E to O: E -&gt; L -&gt; M -&gt; N -&gt; O</t>
+  </si>
+  <si>
+    <t>The least cost path to travel from node A to node B and then from node B to node M is:
+Path from A to B: A -&gt; B
+Path from B to M: B -&gt; L -&gt; M
+The sequences of nodes are:
+A -&gt; B
+B -&gt; L -&gt; M</t>
+  </si>
+  <si>
+    <t>The least cost path to travel first from node A to node D is A -&gt; G -&gt; H -&gt; D. The cost of this path is 3 + 2 + 5 = 10.
+The least cost path to travel from node D to node L is D -&gt; G -&gt; E -&gt; B -&gt; A -&gt; L. The cost of this path is 5 + 4 + 1 + 3 = 13.
+Therefore, the total cost of the least cost path from A to D and then from D to L is 10 + 13 = 23.
 The two sequences of nodes are:
-1. A -&gt; G -&gt; H -&gt; I -&gt; G -&gt; E -&gt; B -&gt; A -&gt; M
-2. A -&gt; G -&gt; H -&gt; I -&gt; G -&gt; E -&gt; B -&gt; A -&gt; M</t>
-  </si>
-  <si>
-    <t>To find the least cost path from node A to node J and then from node J to node K, we can use Dijkstra's algorithm. Here are the steps:
-1. Create a set of unvisited nodes and initialize the distance to the starting node (A) to 0 and the distance to all other nodes to infinity.
-2. Select the node with the smallest distance (A) and mark it as visited. Update the distances to its neighbors (B, C, and D).
-3. Select the node with the smallest distance among the unvisited nodes (B) and mark it as visited. Update the distances to its neighbors (E and F).
-4. Select the node with the smallest distance among the unvisited nodes (E) and mark it as visited. Update the distances to its neighbors (G and I).
-5. Select the node with the smallest distance among the unvisited nodes (F) and mark it as visited. Update the distances to its neighbors (I and J).
-6. Select the node with the smallest distance among the unvisited nodes (I) and mark it as visited. Update the distances to its neighbors (J).
-7. Select the node with the smallest distance among the unvisited nodes (J) and mark it as visited. Since this is the destination node, we can stop the algorithm.
-The least cost path from node A to node J is A -&gt; B -&gt; E -&gt; G -&gt; I -&gt; F -&gt; J. The total cost is 3 + 3 + 1 + 2 + 2 + 1 = 14.
-The least cost path from node J to node K is J -&gt; G -&gt; E -&gt; B -&gt; A -&gt; K. The total cost is 1 + 2 + 3 + 1 + 2 + 2 = 11.
-So, the least cost path to travel first from node A to node J, and then from node node J to node K is A -&gt; B -&gt; E -&gt; G -&gt; I -&gt; F -&gt; J -&gt; G -&gt; E -&gt; B -&gt; A -&gt; K with a total cost of 14 + 11 = 25.</t>
-  </si>
-  <si>
-    <t>To find the least cost path from node A to node L and then from node L to node O, we can use Dijkstra's algorithm. Here are the steps:
-1. Create a set of unvisited nodes and initialize the distance to the starting node (A) to 0 and the distance to all other nodes to infinity.
-2. Select the node with the smallest distance (A) and mark it as visited. Update the distances to its neighbors (B, C, and D).
-3. Select the node with the smallest distance among the unvisited nodes (B) and mark it as visited. Update the distances to its neighbors (E and F).
-4. Select the node with the smallest distance among the unvisited nodes (E) and mark it as visited. Update the distances to its neighbors (G and I).
-5. Select the node with the smallest distance among the unvisited nodes (G) and mark it as visited. Update the distances to its neighbors (H, K, and L).
-6. Select the node with the smallest distance among the unvisited nodes (L) and mark it as visited. Update the distances to its neighbors (M and N).
-7. Select the node with the smallest distance among the unvisited nodes (M) and mark it as visited. Update the distances to its neighbor (O).
-8. Select the node with the smallest distance among the unvisited nodes (N) and mark it as visited.
-9. All nodes have been visited, and the algorithm is complete.
-The resulting distances are:
-A -&gt; B: 1
-A -&gt; C: 4
-A -&gt; D: 5
-B -&gt; E: 1
-B -&gt; F: 4
-C -&gt; E: 5
-C -&gt; F: 5
-D -&gt; E: 6
-D -&gt; F: 6
-E -&gt; G: 2
-E -&gt; I: 3
-F -&gt; G: 2
-F -&gt; I: 3
-G -&gt; H: 1
-G -&gt; K: 3
-G -&gt; L: 4
-H -&gt; K: 2
-H -&gt; L: 5
-I -&gt; L: 2
-K -&gt; L: 1
-L -&gt; M: 1
-L -&gt; N: 2
-M -&gt; O: 2
-N -&gt; O</t>
-  </si>
-  <si>
-    <t>The least cost path to travel first from node A to node F, and then from node node F to node O is:
-Path from A to F: A -&gt; C -&gt; D -&gt; E -&gt; F
-Path from F to O: F -&gt; E -&gt; G -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O
-The sequences of nodes are:
-1. A -&gt; C -&gt; D -&gt; E -&gt; F
-2. F -&gt; E -&gt; G -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O</t>
-  </si>
-  <si>
-    <t>The least cost path to travel first from node A to node B, and then from node node B to node K is:
-Path from A to B: A -&gt; B
-Path from B to K: B -&gt; A -&gt; K
-The sequences of nodes are: A -&gt; B and B -&gt; A -&gt; K.</t>
+1. A -&gt; G -&gt; H -&gt; D
+2. D -&gt; G -&gt; E -&gt; B -&gt; A -&gt; L</t>
+  </si>
+  <si>
+    <t>The least cost path to travel first from node A to node J, and then from node node J to node L is:
+Path from A to J: A -&gt; B -&gt; E -&gt; G -&gt; H -&gt; I -&gt; J
+Path from J to L: J -&gt; H -&gt; G -&gt; E -&gt; B -&gt; A -&gt; L
+The cost of this path is 2 + 3 + 1 + 2 + 1 + 2 + 1 + 1 = 15.</t>
   </si>
   <si>
     <t>Wrong</t>
+  </si>
+  <si>
+    <t>Correct</t>
   </si>
 </sst>
 </file>
@@ -1342,7 +1270,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4">
